--- a/experiments/usa/base_documents/check_targets.xlsx
+++ b/experiments/usa/base_documents/check_targets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krjones/Documents/gitlab/cervical-cancer-v2/experiments/usa/base_documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mduprey/Documents/Implenomics/cervical-cancer-abm/experiments/usa/base_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE20BF8F-E43A-D14C-89B8-EC4581108F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F9567C-65F3-694C-8168-821C31AD2BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="460" windowWidth="27720" windowHeight="18800" xr2:uid="{01BA7038-9586-EA4C-B6C7-707F38D93C78}"/>
+    <workbookView xWindow="6840" yWindow="760" windowWidth="27720" windowHeight="18800" xr2:uid="{01BA7038-9586-EA4C-B6C7-707F38D93C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +262,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -368,7 +368,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -518,9 +518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E3BB3A-6E18-F94C-B6BE-5BC4298D29CA}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -534,7 +536,7 @@
     <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -574,11 +576,11 @@
         <v>10.4</v>
       </c>
       <c r="F2">
-        <v>10.243600000000001</v>
+        <v>10.4213</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G44" si="0">(F2-D2) / D2</f>
-        <v>-1.5038461538461504E-2</v>
+        <v>2.0480769230769324E-3</v>
       </c>
       <c r="I2" t="str">
         <f>A2</f>
@@ -586,10 +588,13 @@
       </c>
       <c r="J2" s="2" cm="1">
         <f t="array" ref="J2">AVERAGE(ABS(G2:G5))</f>
-        <v>8.9024302951592488E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.1780143921464281E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5.1780143921464281E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -603,11 +608,11 @@
         <v>14.3</v>
       </c>
       <c r="F3">
-        <v>14.546799999999999</v>
+        <v>14.470800000000001</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>1.7258741258741158E-2</v>
+        <v>1.1944055944055933E-2</v>
       </c>
       <c r="I3" t="str">
         <f>A7</f>
@@ -615,10 +620,13 @@
       </c>
       <c r="J3" s="2" cm="1">
         <f t="array" ref="J3">AVERAGE(ABS(G6:G9))</f>
-        <v>6.320264405230782E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.4216914043584106E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4.4216914043584106E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -632,11 +640,11 @@
         <v>19.100000000000001</v>
       </c>
       <c r="F4">
-        <v>19.150500000000001</v>
+        <v>19.223199999999999</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>2.6439790575915989E-3</v>
+        <v>6.4502617801045596E-3</v>
       </c>
       <c r="I4" t="str">
         <f>A12</f>
@@ -644,10 +652,13 @@
       </c>
       <c r="J4" s="2" cm="1">
         <f t="array" ref="J4">AVERAGE(ABS(G10:G13))</f>
-        <v>2.3067803030302987E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2.328090909090905E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.328090909090905E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -661,11 +672,11 @@
         <v>17.8</v>
       </c>
       <c r="F5">
-        <v>17.7881</v>
+        <v>17.8048</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>-6.6853932584273528E-4</v>
+        <v>2.6966292134828488E-4</v>
       </c>
       <c r="I5" t="str">
         <f>A17</f>
@@ -673,10 +684,13 @@
       </c>
       <c r="J5" s="2" cm="1">
         <f t="array" ref="J5">AVERAGE(ABS(G14:G17))</f>
-        <v>1.1882119514472496E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.7447478991596661E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.7447478991596661E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -690,11 +704,11 @@
         <v>28.3</v>
       </c>
       <c r="F6">
-        <v>28.241900000000001</v>
+        <v>28.297699999999999</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>-2.0530035335688903E-3</v>
+        <v>-8.1272084805715378E-5</v>
       </c>
       <c r="I6" t="str">
         <f>A22</f>
@@ -702,10 +716,13 @@
       </c>
       <c r="J6" s="2" cm="1">
         <f t="array" ref="J6">AVERAGE(ABS(G18:G23))</f>
-        <v>0.11238030003820303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.6463201212928969E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4.6463201212928969E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -719,11 +736,11 @@
         <v>23.2</v>
       </c>
       <c r="F7">
-        <v>23.351500000000001</v>
+        <v>23.339700000000001</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>6.5301724137931984E-3</v>
+        <v>6.0215517241379857E-3</v>
       </c>
       <c r="I7" t="str">
         <f>A29</f>
@@ -731,10 +748,13 @@
       </c>
       <c r="J7" s="2" cm="1">
         <f t="array" ref="J7">AVERAGE(ABS(G24:G29))</f>
-        <v>0.12093905751664474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.14521522678967383</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.14521522678967383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -748,11 +768,11 @@
         <v>19.899999999999999</v>
       </c>
       <c r="F8">
-        <v>19.790900000000001</v>
+        <v>20.111499999999999</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>-5.4824120603014061E-3</v>
+        <v>1.0628140703517634E-2</v>
       </c>
       <c r="I8" t="str">
         <f>A36</f>
@@ -760,10 +780,13 @@
       </c>
       <c r="J8" s="2" cm="1">
         <f t="array" ref="J8">AVERAGE(ABS(G36:G41))</f>
-        <v>7.470387805749279E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.18864846579307859</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.18864846579307859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -777,11 +800,11 @@
         <v>18.100000000000001</v>
       </c>
       <c r="F9">
-        <v>18.303000000000001</v>
+        <v>18.1173</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>1.1215469613259635E-2</v>
+        <v>9.5580110497230715E-4</v>
       </c>
       <c r="I9" t="str">
         <f>A43</f>
@@ -789,10 +812,13 @@
       </c>
       <c r="J9" s="2" cm="1">
         <f t="array" ref="J9">AVERAGE(ABS(G42:G44))</f>
-        <v>0.28965209697641764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.1368099578431678</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.1368099578431678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -806,14 +832,14 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>5.9789000000000003</v>
+        <v>5.9946000000000002</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>-3.5166666666666124E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-8.9999999999997493E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -827,14 +853,14 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>5.1223999999999998</v>
+        <v>5.0865999999999998</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>2.4479999999999967E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.7319999999999957E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -848,14 +874,14 @@
         <v>2.5</v>
       </c>
       <c r="F12">
-        <v>2.5482999999999998</v>
+        <v>2.5851000000000002</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>1.9319999999999914E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.404000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -869,14 +895,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F13">
-        <v>2.2989000000000002</v>
+        <v>2.2898999999999998</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>4.4954545454545448E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.0863636363636199E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -890,14 +916,14 @@
         <v>2.1</v>
       </c>
       <c r="F14">
-        <v>2.1152000000000002</v>
+        <v>2.0739000000000001</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>7.2380952380952865E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-1.2428571428571435E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -911,14 +937,14 @@
         <v>1.7</v>
       </c>
       <c r="F15">
-        <v>1.6456999999999999</v>
+        <v>1.6836</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>-3.1941176470588244E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-9.647058823529394E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -932,11 +958,11 @@
         <v>0.9</v>
       </c>
       <c r="F16">
-        <v>0.90700000000000003</v>
+        <v>0.90090000000000003</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>7.7777777777777845E-3</v>
+        <v>1.0000000000000132E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -953,11 +979,11 @@
         <v>0.7</v>
       </c>
       <c r="F17">
-        <v>0.70040000000000002</v>
+        <v>0.73270000000000002</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>5.714285714286671E-4</v>
+        <v>4.6714285714285805E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -974,11 +1000,11 @@
         <v>0.402748414</v>
       </c>
       <c r="F18">
-        <v>0.48799999999999999</v>
+        <v>0.41410000000000002</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>0.21167454181458301</v>
+        <v>2.8185302797989479E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -995,11 +1021,11 @@
         <v>0.59374250799999995</v>
       </c>
       <c r="F19">
-        <v>0.69099999999999995</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>0.16380415868759057</v>
+        <v>5.3992246753537275E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1016,11 +1042,11 @@
         <v>0.48578932499999999</v>
       </c>
       <c r="F20">
-        <v>0.52710000000000001</v>
+        <v>0.51849999999999996</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>8.5038251921241828E-2</v>
+        <v>6.7335104574395427E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1037,11 +1063,11 @@
         <v>0.29894727700000001</v>
       </c>
       <c r="F21">
-        <v>0.30409999999999998</v>
+        <v>0.30719999999999997</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>1.7236226573824821E-2</v>
+        <v>2.7605948054847014E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1058,11 +1084,11 @@
         <v>0.174385911</v>
       </c>
       <c r="F22">
-        <v>0.15770000000000001</v>
+        <v>0.1817</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>-9.5683825053963209E-2</v>
+        <v>4.1941972020893337E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1079,11 +1105,11 @@
         <v>0.18061398000000001</v>
       </c>
       <c r="F23">
-        <v>0.16239999999999999</v>
+        <v>0.19139999999999999</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>-0.10084479617801467</v>
+        <v>5.9718633075911284E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1100,11 +1126,11 @@
         <v>0.36469344599999998</v>
       </c>
       <c r="F24">
-        <v>0.33779999999999999</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>-7.3742608470128604E-2</v>
+        <v>-8.3888115718975573E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1121,11 +1147,11 @@
         <v>0.53764085399999995</v>
       </c>
       <c r="F25">
-        <v>0.5494</v>
+        <v>0.4829</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>2.1871749351845302E-2</v>
+        <v>-0.10181676781578797</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1142,11 +1168,11 @@
         <v>0.43988797099999999</v>
       </c>
       <c r="F26">
-        <v>0.43709999999999999</v>
+        <v>0.46289999999999998</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
-        <v>-6.3379114315449204E-3</v>
+        <v>5.2313385491507311E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1163,11 +1189,11 @@
         <v>0.27070029000000001</v>
       </c>
       <c r="F27">
-        <v>0.25459999999999999</v>
+        <v>0.29380000000000001</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
-        <v>-5.9476441639571262E-2</v>
+        <v>8.5333155719929207E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1184,11 +1210,11 @@
         <v>0.15790850200000001</v>
       </c>
       <c r="F28">
-        <v>0.11260000000000001</v>
+        <v>0.19070000000000001</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
-        <v>-0.28692883173573513</v>
+        <v>0.20766138355235617</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1205,11 +1231,11 @@
         <v>0.16354809200000001</v>
       </c>
       <c r="F29">
-        <v>0.1182</v>
+        <v>0.21920000000000001</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
-        <v>-0.27727680247104325</v>
+        <v>0.34027855243948674</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1226,11 +1252,11 @@
         <v>5.1797040000000003E-2</v>
       </c>
       <c r="F30">
-        <v>5.0599999999999999E-2</v>
+        <v>5.5399999999999998E-2</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
-        <v>-2.3110200891788474E-2</v>
+        <v>6.9559187165907463E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1247,11 +1273,11 @@
         <v>7.6360584999999995E-2</v>
       </c>
       <c r="F31">
-        <v>8.2900000000000001E-2</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
-        <v>8.5638618405031952E-2</v>
+        <v>6.9923704748987986E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1268,11 +1294,11 @@
         <v>6.2476841999999998E-2</v>
       </c>
       <c r="F32">
-        <v>6.3500000000000001E-2</v>
+        <v>6.6299999999999998E-2</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>1.6376595987358054E-2</v>
+        <v>6.1193201794674579E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1289,11 +1315,11 @@
         <v>3.8447288000000003E-2</v>
       </c>
       <c r="F33">
-        <v>2.69E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>-0.30034076785858088</v>
+        <v>-0.16769161975741961</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1310,11 +1336,11 @@
         <v>2.2427584E-2</v>
       </c>
       <c r="F34">
-        <v>9.7999999999999997E-3</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
-        <v>-0.56303808738382166</v>
+        <v>0.18158068207435982</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1331,11 +1357,11 @@
         <v>2.322857E-2</v>
       </c>
       <c r="F35">
-        <v>1.43E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="0"/>
-        <v>-0.38437880592735585</v>
+        <v>0.44218951058976086</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1352,11 +1378,11 @@
         <v>2.9</v>
       </c>
       <c r="F36">
-        <v>2.8182</v>
+        <v>2.0116999999999998</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
-        <v>-2.8206896551724096E-2</v>
+        <v>-0.30631034482758623</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1373,11 +1399,11 @@
         <v>19</v>
       </c>
       <c r="F37">
-        <v>18.0458</v>
+        <v>9.1207999999999991</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="0"/>
-        <v>-5.0221052631578958E-2</v>
+        <v>-0.51995789473684217</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1394,11 +1420,11 @@
         <v>31.6</v>
       </c>
       <c r="F38">
-        <v>35.564300000000003</v>
+        <v>27.780799999999999</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="0"/>
-        <v>0.12545253164556966</v>
+        <v>-0.12086075949367095</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1415,11 +1441,11 @@
         <v>37</v>
       </c>
       <c r="F39">
-        <v>35.5837</v>
+        <v>38.186700000000002</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
-        <v>-3.8278378378378372E-2</v>
+        <v>3.2072972972973027E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1436,11 +1462,11 @@
         <v>41.5</v>
       </c>
       <c r="F40">
-        <v>42.560299999999998</v>
+        <v>37.8474</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
-        <v>2.5549397590361397E-2</v>
+        <v>-8.8014457831325291E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1457,11 +1483,11 @@
         <v>43.3</v>
       </c>
       <c r="F41">
-        <v>51.116300000000003</v>
+        <v>40.499600000000001</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
-        <v>0.18051501154734426</v>
+        <v>-6.4674364896073824E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1478,11 +1504,11 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="F42">
-        <v>0.45098039215686198</v>
+        <v>0.52666666666666595</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
-        <v>-0.22909334674040682</v>
+        <v>-9.9715099715100883E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1499,11 +1525,11 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="F43">
-        <v>0.13033448673587</v>
+        <v>0.17333333333333301</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="0"/>
-        <v>-9.4899397667569357E-2</v>
+        <v>0.20370370370370153</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1520,11 +1546,11 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="F44">
-        <v>0.41868512110726602</v>
+        <v>0.3</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="0"/>
-        <v>0.54496354652127676</v>
+        <v>0.10701107011070099</v>
       </c>
     </row>
   </sheetData>
